--- a/raw_data_input/powerplants_public/Liste_Zuschlaege_Oktober2021.xlsx
+++ b/raw_data_input/powerplants_public/Liste_Zuschlaege_Oktober2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\POMMES_public\pommes-data\raw_data_input\powerplants_public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031ED90D-8F9F-4064-8B74-A1705A62EAD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF6E5A-53F0-46D1-9833-86DBFA7381B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Name des Bieters</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>BNA1141</t>
-  </si>
-  <si>
-    <t>BNA1185</t>
   </si>
   <si>
     <t>BNA0377</t>
@@ -638,7 +635,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,9 +708,6 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
@@ -736,7 +730,7 @@
     </row>
     <row r="12" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -909,21 +903,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Aktenrelevant xmlns="03bcae2d-d3c0-4e5e-8622-15c96813d07f" xsi:nil="true"/>
     <Kommentar xmlns="03bcae2d-d3c0-4e5e-8622-15c96813d07f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,6 +939,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A41544-B0F9-44F6-8E00-5F4E73CF55F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0908DF05-E6A7-4568-9CB8-5BAB985E9308}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="03bcae2d-d3c0-4e5e-8622-15c96813d07f"/>
@@ -958,12 +960,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A41544-B0F9-44F6-8E00-5F4E73CF55F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>